--- a/biology/Botanique/Union_nationale_interprofessionnelle_des_légumes_transformés/Union_nationale_interprofessionnelle_des_légumes_transformés.xlsx
+++ b/biology/Botanique/Union_nationale_interprofessionnelle_des_légumes_transformés/Union_nationale_interprofessionnelle_des_légumes_transformés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Union_nationale_interprofessionnelle_des_l%C3%A9gumes_transform%C3%A9s</t>
+          <t>Union_nationale_interprofessionnelle_des_légumes_transformés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Union nationale interprofessionnelle des légumes transformés (Unilet) est une organisation professionnelle française qui regroupe des entreprises (notamment Bonduelle), des professionnels du secteur de la transformation des légumes (conserves, surgélation) et des producteurs de légumes. Son siège social se trouve à Paris.
 Créée en 1961 sous le nom d'Unilec (Union nationale interprofessionnelle des légumes de conserve), elle prit le nom d'Unilet le 25 janvier 1990 pour consacrer l'extension de la filière de transformation des légumes aux surgelés.
